--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\PycharmProjects\99004340\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFC1F6-32C6-49CE-8AF8-45710A1F64F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F05FA8-D6AB-4EA8-81E1-3B4BEB85B7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>PsNo</t>
   </si>
@@ -100,6 +101,123 @@
   </si>
   <si>
     <t>B+</t>
+  </si>
+  <si>
+    <t>Hobbie_1</t>
+  </si>
+  <si>
+    <t>Hobbie_2</t>
+  </si>
+  <si>
+    <t>Hobbie_3</t>
+  </si>
+  <si>
+    <t>Hobbie_4</t>
+  </si>
+  <si>
+    <t>Hobbie_5</t>
+  </si>
+  <si>
+    <t>Hobbie_6</t>
+  </si>
+  <si>
+    <t>Hobbie_7</t>
+  </si>
+  <si>
+    <t>Hobbie_8</t>
+  </si>
+  <si>
+    <t>Hobbie_9</t>
+  </si>
+  <si>
+    <t>Hobbie_10</t>
+  </si>
+  <si>
+    <t>Hobbie_11</t>
+  </si>
+  <si>
+    <t>Hobbie_12</t>
+  </si>
+  <si>
+    <t>Hobbie_13</t>
+  </si>
+  <si>
+    <t>Hobbie_14</t>
+  </si>
+  <si>
+    <t>Hobbie_15</t>
+  </si>
+  <si>
+    <t>Hobbie_16</t>
+  </si>
+  <si>
+    <t>Hobbie_17</t>
+  </si>
+  <si>
+    <t>Hobbie_18</t>
+  </si>
+  <si>
+    <t>Hobbie_19</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Skiing</t>
+  </si>
+  <si>
+    <t>Weight training</t>
+  </si>
+  <si>
+    <t>Postcard Collecting</t>
+  </si>
+  <si>
+    <t>Playing The Stock Market</t>
+  </si>
+  <si>
+    <t>Beekeeping</t>
+  </si>
+  <si>
+    <t>Playing Chess</t>
+  </si>
+  <si>
+    <t>Archery</t>
+  </si>
+  <si>
+    <t>Coin Collecting</t>
+  </si>
+  <si>
+    <t>Vintage Clothing Collecting</t>
+  </si>
+  <si>
+    <t>Furniture Building</t>
+  </si>
+  <si>
+    <t>LEGO</t>
+  </si>
+  <si>
+    <t>Amateur Radio</t>
+  </si>
+  <si>
+    <t>Sudoku</t>
+  </si>
+  <si>
+    <t>Crabbing</t>
+  </si>
+  <si>
+    <t>Kayaking</t>
+  </si>
+  <si>
+    <t>Parkour</t>
+  </si>
+  <si>
+    <t>Stamp Collecting</t>
+  </si>
+  <si>
+    <t>Wood Carving</t>
+  </si>
+  <si>
+    <t>Discpline_Grade</t>
   </si>
 </sst>
 </file>
@@ -426,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -450,10 +568,11 @@
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +630,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>99004000</v>
       </c>
@@ -570,68 +692,71 @@
       <c r="S2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>99004001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99004002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99004003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99004004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99004005</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99004006</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99004007</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99004008</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99004009</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99004010</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99004011</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99004012</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>99004013</v>
       </c>
@@ -640,4 +765,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE74A5A-740A-4A79-A426-D39BB9681268}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99004000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99004001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99004002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99004003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99004004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>99004005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99004006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99004007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99004008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99004009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99004010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99004011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99004012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99004013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\PycharmProjects\99004340\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F05FA8-D6AB-4EA8-81E1-3B4BEB85B7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727858BB-1F72-4D13-B25C-7B44F85BDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satya\PycharmProjects\99004340\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727858BB-1F72-4D13-B25C-7B44F85BDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9447854-2637-43C9-AD91-31A550EACCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="210">
   <si>
     <t>PsNo</t>
   </si>
@@ -218,13 +221,451 @@
   </si>
   <si>
     <t>Discpline_Grade</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Astronomy</t>
+  </si>
+  <si>
+    <t>Hobby Horsing</t>
+  </si>
+  <si>
+    <t>Antique Car Collecting</t>
+  </si>
+  <si>
+    <t>Book Club</t>
+  </si>
+  <si>
+    <t>Public Speaking</t>
+  </si>
+  <si>
+    <t>Fossil Hunting</t>
+  </si>
+  <si>
+    <t>Canoeing</t>
+  </si>
+  <si>
+    <t>Hunting</t>
+  </si>
+  <si>
+    <t>Record Collecting</t>
+  </si>
+  <si>
+    <t>Bread Making</t>
+  </si>
+  <si>
+    <t>Leather Tooling</t>
+  </si>
+  <si>
+    <t>Fly Fishing</t>
+  </si>
+  <si>
+    <t>Designing and Making Clothes</t>
+  </si>
+  <si>
+    <t>Art Collecting</t>
+  </si>
+  <si>
+    <t>Leaf Collecting and Pressing</t>
+  </si>
+  <si>
+    <t>Billiards</t>
+  </si>
+  <si>
+    <t>Genealogy</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Caving</t>
+  </si>
+  <si>
+    <t>Metal Detecting</t>
+  </si>
+  <si>
+    <t>Model Railroads</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>Shell Fishing</t>
+  </si>
+  <si>
+    <t>Antiquing</t>
+  </si>
+  <si>
+    <t>Wikipedia Editing</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Growing Vegetables</t>
+  </si>
+  <si>
+    <t>Sports Memorabilia Collecting</t>
+  </si>
+  <si>
+    <t>Calligraphy</t>
+  </si>
+  <si>
+    <t>Embroidery</t>
+  </si>
+  <si>
+    <t>Cosplaying</t>
+  </si>
+  <si>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Scrapbooking</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Quilting</t>
+  </si>
+  <si>
+    <t>City_1</t>
+  </si>
+  <si>
+    <t>City_2</t>
+  </si>
+  <si>
+    <t>City_3</t>
+  </si>
+  <si>
+    <t>City_4</t>
+  </si>
+  <si>
+    <t>City_5</t>
+  </si>
+  <si>
+    <t>City_6</t>
+  </si>
+  <si>
+    <t>City_7</t>
+  </si>
+  <si>
+    <t>City_8</t>
+  </si>
+  <si>
+    <t>City_9</t>
+  </si>
+  <si>
+    <t>City_10</t>
+  </si>
+  <si>
+    <t>City_11</t>
+  </si>
+  <si>
+    <t>City_12</t>
+  </si>
+  <si>
+    <t>City_13</t>
+  </si>
+  <si>
+    <t>City_14</t>
+  </si>
+  <si>
+    <t>City_15</t>
+  </si>
+  <si>
+    <t>City_16</t>
+  </si>
+  <si>
+    <t>City_17</t>
+  </si>
+  <si>
+    <t>City_18</t>
+  </si>
+  <si>
+    <t>City_19</t>
+  </si>
+  <si>
+    <t>Coldbeach</t>
+  </si>
+  <si>
+    <t>Swynhall</t>
+  </si>
+  <si>
+    <t>Windbeach</t>
+  </si>
+  <si>
+    <t>Deepedge</t>
+  </si>
+  <si>
+    <t>Southsnow</t>
+  </si>
+  <si>
+    <t>Marblemere</t>
+  </si>
+  <si>
+    <t>Marshmill</t>
+  </si>
+  <si>
+    <t>Shorebeach</t>
+  </si>
+  <si>
+    <t>Dracacre</t>
+  </si>
+  <si>
+    <t>Doracre</t>
+  </si>
+  <si>
+    <t>Faymill</t>
+  </si>
+  <si>
+    <t>Brightwood</t>
+  </si>
+  <si>
+    <t>Falldell</t>
+  </si>
+  <si>
+    <t>Newlake</t>
+  </si>
+  <si>
+    <t>Bluehaven</t>
+  </si>
+  <si>
+    <t>Coldpine</t>
+  </si>
+  <si>
+    <t>Mallowviolet</t>
+  </si>
+  <si>
+    <t>Esterbourne</t>
+  </si>
+  <si>
+    <t>Mallowbank</t>
+  </si>
+  <si>
+    <t>Aldmerrow</t>
+  </si>
+  <si>
+    <t>Snowness</t>
+  </si>
+  <si>
+    <t>Deerland</t>
+  </si>
+  <si>
+    <t>Merrowbarrow</t>
+  </si>
+  <si>
+    <t>Silverkeep</t>
+  </si>
+  <si>
+    <t>Fallbell</t>
+  </si>
+  <si>
+    <t>Wildefay</t>
+  </si>
+  <si>
+    <t>Corhollow</t>
+  </si>
+  <si>
+    <t>Glasslake</t>
+  </si>
+  <si>
+    <t>Northbarrow</t>
+  </si>
+  <si>
+    <t>Whitecrest</t>
+  </si>
+  <si>
+    <t>Corbourne</t>
+  </si>
+  <si>
+    <t>Ironlyn</t>
+  </si>
+  <si>
+    <t>Hollowston</t>
+  </si>
+  <si>
+    <t>Snownesse</t>
+  </si>
+  <si>
+    <t>Aldcrest</t>
+  </si>
+  <si>
+    <t>Barrowmeadow</t>
+  </si>
+  <si>
+    <t>Woodviolet</t>
+  </si>
+  <si>
+    <t>Wildeview</t>
+  </si>
+  <si>
+    <t>Violetbeach</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Cpp</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Java script</t>
+  </si>
+  <si>
+    <t>Type Script</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_1</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_2</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_3</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_4</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_5</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_6</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_7</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_8</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_9</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_10</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_11</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_12</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_13</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_14</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_15</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_16</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_17</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_18</t>
+  </si>
+  <si>
+    <t>Domain_Expertise_19</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>Chip Designing</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>Network Admin</t>
+  </si>
+  <si>
+    <t>Service desk</t>
+  </si>
+  <si>
+    <t>Hr Management</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Bussiness analyst</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>It Support</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +677,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,65 +1147,806 @@
       <c r="A3">
         <v>99004001</v>
       </c>
+      <c r="B3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D3">
+        <v>5.3</v>
+      </c>
+      <c r="E3">
+        <v>7.89</v>
+      </c>
+      <c r="F3">
+        <v>6.52</v>
+      </c>
+      <c r="G3">
+        <v>5.36</v>
+      </c>
+      <c r="H3">
+        <v>6.32</v>
+      </c>
+      <c r="I3">
+        <v>5.24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99004002</v>
       </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6.3</v>
+      </c>
+      <c r="D4">
+        <v>8.6</v>
+      </c>
+      <c r="E4">
+        <v>7.56</v>
+      </c>
+      <c r="F4">
+        <v>7.85</v>
+      </c>
+      <c r="G4">
+        <v>9.52</v>
+      </c>
+      <c r="H4">
+        <v>9.52</v>
+      </c>
+      <c r="I4">
+        <v>9.52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99004003</v>
       </c>
+      <c r="B5">
+        <v>5.2</v>
+      </c>
+      <c r="C5">
+        <v>6.9</v>
+      </c>
+      <c r="D5">
+        <v>7.5</v>
+      </c>
+      <c r="E5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F5">
+        <v>9.65</v>
+      </c>
+      <c r="G5">
+        <v>7.85</v>
+      </c>
+      <c r="H5">
+        <v>7.52</v>
+      </c>
+      <c r="I5">
+        <v>8.25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99004004</v>
       </c>
+      <c r="B6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C6">
+        <v>7.8</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F6">
+        <v>9.32</v>
+      </c>
+      <c r="G6">
+        <v>7.41</v>
+      </c>
+      <c r="H6">
+        <v>8.26</v>
+      </c>
+      <c r="I6">
+        <v>9.25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99004005</v>
       </c>
+      <c r="B7">
+        <v>6.5</v>
+      </c>
+      <c r="C7">
+        <v>8.6</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>8.52</v>
+      </c>
+      <c r="F7">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G7">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="H7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I7">
+        <v>7.24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99004006</v>
       </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <v>9.6</v>
+      </c>
+      <c r="D8">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E8">
+        <v>9.65</v>
+      </c>
+      <c r="F8">
+        <v>8.52</v>
+      </c>
+      <c r="G8">
+        <v>5.62</v>
+      </c>
+      <c r="H8">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I8">
+        <v>9.26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99004007</v>
       </c>
+      <c r="B9">
+        <v>6.47</v>
+      </c>
+      <c r="C9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D9">
+        <v>6.78</v>
+      </c>
+      <c r="E9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F9">
+        <v>7.85</v>
+      </c>
+      <c r="G9">
+        <v>7.25</v>
+      </c>
+      <c r="H9">
+        <v>7.52</v>
+      </c>
+      <c r="I9">
+        <v>3.25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99004008</v>
       </c>
+      <c r="B10">
+        <v>8.23</v>
+      </c>
+      <c r="C10">
+        <v>8.5</v>
+      </c>
+      <c r="D10">
+        <v>5.23</v>
+      </c>
+      <c r="E10">
+        <v>7.8</v>
+      </c>
+      <c r="F10">
+        <v>8.52</v>
+      </c>
+      <c r="G10">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H10">
+        <v>8.9</v>
+      </c>
+      <c r="I10">
+        <v>7.52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99004009</v>
       </c>
+      <c r="B11">
+        <v>7.37</v>
+      </c>
+      <c r="C11">
+        <v>9.6</v>
+      </c>
+      <c r="D11">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E11">
+        <v>8.67</v>
+      </c>
+      <c r="F11">
+        <v>9.42</v>
+      </c>
+      <c r="G11">
+        <v>7.25</v>
+      </c>
+      <c r="H11">
+        <v>9.25</v>
+      </c>
+      <c r="I11">
+        <v>5.25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99004010</v>
       </c>
+      <c r="B12">
+        <v>6.5</v>
+      </c>
+      <c r="C12">
+        <v>8.25</v>
+      </c>
+      <c r="D12">
+        <v>8.35</v>
+      </c>
+      <c r="E12">
+        <v>7.52</v>
+      </c>
+      <c r="F12">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G12">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H12">
+        <v>9.14</v>
+      </c>
+      <c r="I12">
+        <v>7.16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99004011</v>
       </c>
+      <c r="B13">
+        <v>9.6</v>
+      </c>
+      <c r="C13">
+        <v>7.5</v>
+      </c>
+      <c r="D13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E13">
+        <v>8.25</v>
+      </c>
+      <c r="F13">
+        <v>7.2</v>
+      </c>
+      <c r="G13">
+        <v>7.21</v>
+      </c>
+      <c r="H13">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I13">
+        <v>9.56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99004012</v>
       </c>
+      <c r="B14">
+        <v>7.5</v>
+      </c>
+      <c r="C14">
+        <v>7.3</v>
+      </c>
+      <c r="D14">
+        <v>5.36</v>
+      </c>
+      <c r="E14">
+        <v>9.24</v>
+      </c>
+      <c r="F14">
+        <v>5.6</v>
+      </c>
+      <c r="G14">
+        <v>5.96</v>
+      </c>
+      <c r="H14">
+        <v>9.14</v>
+      </c>
+      <c r="I14">
+        <v>7.65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>99004013</v>
+      </c>
+      <c r="B15">
+        <v>7.56</v>
+      </c>
+      <c r="C15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E15">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F15">
+        <v>7.5</v>
+      </c>
+      <c r="G15">
+        <v>8.36</v>
+      </c>
+      <c r="H15">
+        <v>8.25</v>
+      </c>
+      <c r="I15">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -769,22 +1957,1011 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE74A5A-740A-4A79-A426-D39BB9681268}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99004000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99004001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99004002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99004003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99004004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>99004005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99004006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99004007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99004008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99004009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99004010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99004011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99004012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99004013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483361A-7AFC-42D6-B373-FC1058FBF8AD}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
@@ -803,61 +2980,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -865,129 +3042,2819 @@
         <v>99004000</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>99004001</v>
       </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99004002</v>
       </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" t="s">
+        <v>141</v>
+      </c>
+      <c r="S4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99004003</v>
       </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" t="s">
+        <v>154</v>
+      </c>
+      <c r="T5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99004004</v>
       </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" t="s">
+        <v>155</v>
+      </c>
+      <c r="T6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99004005</v>
       </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" t="s">
+        <v>148</v>
+      </c>
+      <c r="T7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99004006</v>
       </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99004007</v>
       </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99004008</v>
       </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99004009</v>
       </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99004010</v>
       </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99004011</v>
       </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99004012</v>
       </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" t="s">
+        <v>157</v>
+      </c>
+      <c r="S14" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>99004013</v>
       </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5A00C-EAA5-4C34-BA01-C16C99681904}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99004000</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99004001</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99004002</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99004003</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99004004</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>99004005</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99004006</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99004007</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99004008</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99004009</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99004010</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99004011</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99004012</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99004013</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B60CF4-E3F9-4C92-B0BF-1823B751785F}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99004000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99004001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99004002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99004003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99004004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>208</v>
+      </c>
+      <c r="R6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" t="s">
+        <v>208</v>
+      </c>
+      <c r="T6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>99004005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>208</v>
+      </c>
+      <c r="R7" t="s">
+        <v>207</v>
+      </c>
+      <c r="S7" t="s">
+        <v>208</v>
+      </c>
+      <c r="T7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99004006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>208</v>
+      </c>
+      <c r="R8" t="s">
+        <v>197</v>
+      </c>
+      <c r="S8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99004007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99004008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" t="s">
+        <v>199</v>
+      </c>
+      <c r="S10" t="s">
+        <v>201</v>
+      </c>
+      <c r="T10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99004009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O11" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S11" t="s">
+        <v>208</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99004010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>208</v>
+      </c>
+      <c r="R12" t="s">
+        <v>201</v>
+      </c>
+      <c r="S12" t="s">
+        <v>197</v>
+      </c>
+      <c r="T12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99004011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" t="s">
+        <v>201</v>
+      </c>
+      <c r="S13" t="s">
+        <v>209</v>
+      </c>
+      <c r="T13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99004012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
+      <c r="O14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>208</v>
+      </c>
+      <c r="R14" t="s">
+        <v>208</v>
+      </c>
+      <c r="S14" t="s">
+        <v>198</v>
+      </c>
+      <c r="T14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99004013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>209</v>
+      </c>
+      <c r="R15" t="s">
+        <v>197</v>
+      </c>
+      <c r="S15" t="s">
+        <v>199</v>
+      </c>
+      <c r="T15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>